--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/CodeSystem-organization-role.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/CodeSystem-organization-role.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>9</t>
+    <t>14</t>
   </si>
   <si>
     <t>Level</t>
@@ -196,6 +196,36 @@
   </si>
   <si>
     <t>Allowlist Management Site</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>Analysis Service Provider</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>Service Provider Registry</t>
+  </si>
+  <si>
+    <t>TSP</t>
+  </si>
+  <si>
+    <t>Terminology Service Provider</t>
+  </si>
+  <si>
+    <t>PPH</t>
+  </si>
+  <si>
+    <t>Process Plugin Hub</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>Biobank</t>
   </si>
 </sst>
 </file>
@@ -512,7 +542,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,6 +670,66 @@
       </c>
       <c r="D10" s="2"/>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/CodeSystem-organization-role.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/CodeSystem-organization-role.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
